--- a/source/xlabels.xlsx
+++ b/source/xlabels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/ics/chart-data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E58AF7-D7AE-9846-B2BE-7D8CF060D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BCB60-8DCB-CE46-8D68-372A290FC88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="1140" windowWidth="38500" windowHeight="25420" activeTab="5" xr2:uid="{0028529B-7604-472D-86EE-8E10CDFB3A7E}"/>
+    <workbookView xWindow="53720" yWindow="860" windowWidth="38500" windowHeight="25420" activeTab="5" xr2:uid="{0028529B-7604-472D-86EE-8E10CDFB3A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="916">
   <si>
     <t>http://resource.geosciml.org/classifier/ics/ischart/Aalenian</t>
   </si>
@@ -2919,6 +2919,12 @@
   </si>
   <si>
     <t>Super Eyonlar</t>
+  </si>
+  <si>
+    <t>Eons</t>
+  </si>
+  <si>
+    <t>Eonlar</t>
   </si>
 </sst>
 </file>
@@ -3115,6 +3121,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3139,8 +3147,6 @@
     </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3573,13 +3579,13 @@
     </row>
     <row r="2" spans="1:19" ht="34" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="4" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="6" spans="1:19" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3705,19 +3711,19 @@
     </row>
     <row r="8" spans="1:19" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3793,19 +3799,19 @@
     </row>
     <row r="12" spans="1:19" ht="22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3837,12 +3843,12 @@
     </row>
     <row r="14" spans="1:19" ht="22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3872,30 +3878,30 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3906,18 +3912,18 @@
     </row>
     <row r="17" spans="1:19" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="19" spans="1:19" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4354,10 +4360,10 @@
     <row r="7" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
@@ -4408,10 +4414,10 @@
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
@@ -11275,8 +11281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AAD1E9-78F0-B543-8029-2A07651AE668}">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121:N139"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11296,10 +11302,10 @@
       <c r="C1" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="19" t="s">
         <v>690</v>
       </c>
     </row>
@@ -11312,10 +11318,10 @@
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="20" t="s">
         <v>818</v>
       </c>
     </row>
@@ -11323,10 +11329,10 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="20" t="s">
         <v>858</v>
       </c>
     </row>
@@ -11334,10 +11340,10 @@
       <c r="A5" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="20" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11345,10 +11351,10 @@
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="20" t="s">
         <v>806</v>
       </c>
     </row>
@@ -11356,10 +11362,10 @@
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="20" t="s">
         <v>827</v>
       </c>
     </row>
@@ -11367,10 +11373,10 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="20" t="s">
         <v>807</v>
       </c>
     </row>
@@ -11378,10 +11384,10 @@
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="20" t="s">
         <v>790</v>
       </c>
     </row>
@@ -11389,10 +11395,10 @@
       <c r="A10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="20" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11400,10 +11406,10 @@
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="20" t="s">
         <v>836</v>
       </c>
     </row>
@@ -11411,10 +11417,10 @@
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="20" t="s">
         <v>838</v>
       </c>
     </row>
@@ -11422,10 +11428,10 @@
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="20" t="s">
         <v>817</v>
       </c>
     </row>
@@ -11433,10 +11439,10 @@
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="20" t="s">
         <v>808</v>
       </c>
     </row>
@@ -11444,10 +11450,10 @@
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="20" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11455,10 +11461,10 @@
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="20" t="s">
         <v>842</v>
       </c>
     </row>
@@ -11466,10 +11472,10 @@
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="20" t="s">
         <v>816</v>
       </c>
     </row>
@@ -11477,10 +11483,10 @@
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="20" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11488,10 +11494,10 @@
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="20" t="s">
         <v>789</v>
       </c>
     </row>
@@ -11499,10 +11505,10 @@
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="20" t="s">
         <v>781</v>
       </c>
     </row>
@@ -11510,10 +11516,10 @@
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="20" t="s">
         <v>815</v>
       </c>
     </row>
@@ -11521,10 +11527,10 @@
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="20" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11532,10 +11538,10 @@
       <c r="A23" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="20" t="s">
         <v>746</v>
       </c>
     </row>
@@ -11543,58 +11549,58 @@
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="20" t="s">
         <v>880</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="20" t="s">
         <v>884</v>
       </c>
     </row>
@@ -11602,10 +11608,10 @@
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="20" t="s">
         <v>801</v>
       </c>
     </row>
@@ -11613,10 +11619,10 @@
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="20" t="s">
         <v>832</v>
       </c>
     </row>
@@ -11624,10 +11630,10 @@
       <c r="A31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="20" t="s">
         <v>742</v>
       </c>
     </row>
@@ -11635,10 +11641,10 @@
       <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="20" t="s">
         <v>825</v>
       </c>
     </row>
@@ -11646,10 +11652,10 @@
       <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="20" t="s">
         <v>805</v>
       </c>
     </row>
@@ -11657,10 +11663,10 @@
       <c r="A34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="20" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11668,10 +11674,10 @@
       <c r="A35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="20" t="s">
         <v>830</v>
       </c>
     </row>
@@ -11679,10 +11685,10 @@
       <c r="A36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="20" t="s">
         <v>791</v>
       </c>
     </row>
@@ -11690,10 +11696,10 @@
       <c r="A37" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="20" t="s">
         <v>780</v>
       </c>
     </row>
@@ -11701,10 +11707,10 @@
       <c r="A38" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="20" t="s">
         <v>766</v>
       </c>
     </row>
@@ -11712,10 +11718,10 @@
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="20" t="s">
         <v>803</v>
       </c>
     </row>
@@ -11723,10 +11729,10 @@
       <c r="A40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="20" t="s">
         <v>740</v>
       </c>
     </row>
@@ -11734,10 +11740,10 @@
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="20" t="s">
         <v>748</v>
       </c>
     </row>
@@ -11745,10 +11751,10 @@
       <c r="A42" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="20" t="s">
         <v>799</v>
       </c>
     </row>
@@ -11756,10 +11762,10 @@
       <c r="A43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="20" t="s">
         <v>864</v>
       </c>
     </row>
@@ -11767,10 +11773,10 @@
       <c r="A44" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="20" t="s">
         <v>863</v>
       </c>
     </row>
@@ -11778,10 +11784,10 @@
       <c r="A45" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="20" t="s">
         <v>743</v>
       </c>
     </row>
@@ -11789,10 +11795,10 @@
       <c r="A46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="20" t="s">
         <v>871</v>
       </c>
     </row>
@@ -11800,10 +11806,10 @@
       <c r="A47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="20" t="s">
         <v>751</v>
       </c>
     </row>
@@ -11811,10 +11817,10 @@
       <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="20" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11822,10 +11828,10 @@
       <c r="A49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="20" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11833,10 +11839,10 @@
       <c r="A50" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="20" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11844,10 +11850,10 @@
       <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="20" t="s">
         <v>736</v>
       </c>
     </row>
@@ -11855,32 +11861,32 @@
       <c r="A52" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="20" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E53" t="s">
-        <v>625</v>
-      </c>
-      <c r="F53" t="s">
-        <v>625</v>
+      <c r="E53" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="20" t="s">
         <v>907</v>
       </c>
     </row>
@@ -11888,10 +11894,10 @@
       <c r="A55" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="20" t="s">
         <v>906</v>
       </c>
     </row>
@@ -11899,10 +11905,10 @@
       <c r="A56" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="20" t="s">
         <v>846</v>
       </c>
     </row>
@@ -11910,10 +11916,10 @@
       <c r="A57" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="20" t="s">
         <v>865</v>
       </c>
     </row>
@@ -11921,10 +11927,10 @@
       <c r="A58" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="20" t="s">
         <v>876</v>
       </c>
     </row>
@@ -11932,10 +11938,10 @@
       <c r="A59" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="20" t="s">
         <v>847</v>
       </c>
     </row>
@@ -11943,10 +11949,10 @@
       <c r="A60" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="20" t="s">
         <v>773</v>
       </c>
     </row>
@@ -11954,10 +11960,10 @@
       <c r="A61" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="20" t="s">
         <v>782</v>
       </c>
     </row>
@@ -11965,10 +11971,10 @@
       <c r="A62" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="20" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11976,10 +11982,10 @@
       <c r="A63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="20" t="s">
         <v>854</v>
       </c>
     </row>
@@ -11987,10 +11993,10 @@
       <c r="A64" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="20" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11998,10 +12004,10 @@
       <c r="A65" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="20" t="s">
         <v>765</v>
       </c>
     </row>
@@ -12009,10 +12015,10 @@
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="20" t="s">
         <v>870</v>
       </c>
     </row>
@@ -12020,10 +12026,10 @@
       <c r="A67" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="20" t="s">
         <v>839</v>
       </c>
     </row>
@@ -12031,10 +12037,10 @@
       <c r="A68" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="20" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12042,10 +12048,10 @@
       <c r="A69" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="20" t="s">
         <v>809</v>
       </c>
     </row>
@@ -12053,10 +12059,10 @@
       <c r="A70" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="20" t="s">
         <v>822</v>
       </c>
     </row>
@@ -12064,10 +12070,10 @@
       <c r="A71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="20" t="s">
         <v>860</v>
       </c>
     </row>
@@ -12075,10 +12081,10 @@
       <c r="A72" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="20" t="s">
         <v>757</v>
       </c>
     </row>
@@ -12086,10 +12092,10 @@
       <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="20" t="s">
         <v>855</v>
       </c>
     </row>
@@ -12097,10 +12103,10 @@
       <c r="A74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="20" t="s">
         <v>829</v>
       </c>
     </row>
@@ -12108,10 +12114,10 @@
       <c r="A75" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="20" t="s">
         <v>868</v>
       </c>
     </row>
@@ -12119,10 +12125,10 @@
       <c r="A76" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="20" t="s">
         <v>741</v>
       </c>
     </row>
@@ -12130,10 +12136,10 @@
       <c r="A77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="20" t="s">
         <v>840</v>
       </c>
     </row>
@@ -12141,10 +12147,10 @@
       <c r="A78" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="20" t="s">
         <v>861</v>
       </c>
     </row>
@@ -12152,10 +12158,10 @@
       <c r="A79" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="20" t="s">
         <v>813</v>
       </c>
     </row>
@@ -12163,10 +12169,10 @@
       <c r="A80" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="20" t="s">
         <v>835</v>
       </c>
     </row>
@@ -12174,10 +12180,10 @@
       <c r="A81" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="20" t="s">
         <v>826</v>
       </c>
     </row>
@@ -12185,10 +12191,10 @@
       <c r="A82" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="20" t="s">
         <v>788</v>
       </c>
     </row>
@@ -12196,10 +12202,10 @@
       <c r="A83" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="20" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12207,10 +12213,10 @@
       <c r="A84" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="20" t="s">
         <v>852</v>
       </c>
     </row>
@@ -12218,10 +12224,10 @@
       <c r="A85" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="20" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12229,10 +12235,10 @@
       <c r="A86" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="20" t="s">
         <v>885</v>
       </c>
     </row>
@@ -12240,23 +12246,23 @@
       <c r="A87" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="20" t="s">
         <v>886</v>
       </c>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="20" t="s">
         <v>887</v>
       </c>
     </row>
@@ -12264,10 +12270,10 @@
       <c r="A89" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="20" t="s">
         <v>888</v>
       </c>
     </row>
@@ -12275,10 +12281,10 @@
       <c r="A90" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="20" t="s">
         <v>889</v>
       </c>
     </row>
@@ -12286,10 +12292,10 @@
       <c r="A91" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="20" t="s">
         <v>890</v>
       </c>
     </row>
@@ -12297,10 +12303,10 @@
       <c r="A92" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="20" t="s">
         <v>891</v>
       </c>
     </row>
@@ -12308,10 +12314,10 @@
       <c r="A93" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="20" t="s">
         <v>853</v>
       </c>
     </row>
@@ -12319,10 +12325,10 @@
       <c r="A94" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="20" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12330,10 +12336,10 @@
       <c r="A95" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="20" t="s">
         <v>795</v>
       </c>
     </row>
@@ -12341,10 +12347,10 @@
       <c r="A96" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="20" t="s">
         <v>800</v>
       </c>
     </row>
@@ -12352,10 +12358,10 @@
       <c r="A97" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="20" t="s">
         <v>777</v>
       </c>
     </row>
@@ -12363,10 +12369,10 @@
       <c r="A98" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="20" t="s">
         <v>734</v>
       </c>
     </row>
@@ -12374,10 +12380,10 @@
       <c r="A99" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="20" t="s">
         <v>731</v>
       </c>
     </row>
@@ -12385,10 +12391,10 @@
       <c r="A100" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="20" t="s">
         <v>728</v>
       </c>
     </row>
@@ -12396,10 +12402,10 @@
       <c r="A101" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="20" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12407,10 +12413,10 @@
       <c r="A102" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="F102" s="20" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12418,22 +12424,22 @@
       <c r="A103" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="G103" s="30"/>
+      <c r="G103" s="20"/>
     </row>
     <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="20" t="s">
         <v>893</v>
       </c>
     </row>
@@ -12441,10 +12447,10 @@
       <c r="A105" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="F105" s="30" t="s">
+      <c r="F105" s="20" t="s">
         <v>894</v>
       </c>
     </row>
@@ -12452,10 +12458,10 @@
       <c r="A106" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="20" t="s">
         <v>895</v>
       </c>
     </row>
@@ -12463,10 +12469,10 @@
       <c r="A107" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="20" t="s">
         <v>896</v>
       </c>
     </row>
@@ -12474,10 +12480,10 @@
       <c r="A108" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="20" t="s">
         <v>897</v>
       </c>
     </row>
@@ -12485,10 +12491,10 @@
       <c r="A109" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="F109" s="30" t="s">
+      <c r="F109" s="20" t="s">
         <v>760</v>
       </c>
     </row>
@@ -12496,10 +12502,10 @@
       <c r="A110" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="20" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12507,10 +12513,10 @@
       <c r="A111" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="20" t="s">
         <v>841</v>
       </c>
     </row>
@@ -12518,10 +12524,10 @@
       <c r="A112" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F112" s="30" t="s">
+      <c r="F112" s="20" t="s">
         <v>733</v>
       </c>
     </row>
@@ -12529,10 +12535,10 @@
       <c r="A113" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="F113" s="30" t="s">
+      <c r="F113" s="20" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12540,10 +12546,10 @@
       <c r="A114" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F114" s="30" t="s">
+      <c r="F114" s="20" t="s">
         <v>730</v>
       </c>
     </row>
@@ -12551,10 +12557,10 @@
       <c r="A115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="20" t="s">
         <v>824</v>
       </c>
     </row>
@@ -12562,10 +12568,10 @@
       <c r="A116" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="20" t="s">
         <v>778</v>
       </c>
     </row>
@@ -12573,10 +12579,10 @@
       <c r="A117" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="F117" s="30" t="s">
+      <c r="F117" s="20" t="s">
         <v>828</v>
       </c>
     </row>
@@ -12584,10 +12590,10 @@
       <c r="A118" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="F118" s="30" t="s">
+      <c r="F118" s="20" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12595,10 +12601,10 @@
       <c r="A119" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="20" t="s">
         <v>745</v>
       </c>
     </row>
@@ -12606,10 +12612,10 @@
       <c r="A120" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="F120" s="30" t="s">
+      <c r="F120" s="20" t="s">
         <v>754</v>
       </c>
     </row>
@@ -12617,10 +12623,10 @@
       <c r="A121" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="20" t="s">
         <v>814</v>
       </c>
     </row>
@@ -12628,231 +12634,231 @@
       <c r="A122" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F122" s="20" t="s">
         <v>869</v>
       </c>
-      <c r="L122" s="30"/>
-      <c r="M122" s="30"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
     </row>
     <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F123" s="30" t="s">
+      <c r="F123" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="L123" s="30"/>
-      <c r="M123" s="30"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="F124" s="30" t="s">
+      <c r="F124" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
     </row>
     <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="F125" s="30" t="s">
+      <c r="F125" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="L125" s="30"/>
-      <c r="M125" s="30"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="F126" s="30" t="s">
+      <c r="F126" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="L126" s="30"/>
-      <c r="M126" s="30"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
     </row>
     <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="E127" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F128" s="30" t="s">
+      <c r="F128" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="L128" s="30"/>
-      <c r="M128" s="30"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="F129" s="30" t="s">
+      <c r="F129" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="L129" s="30"/>
-      <c r="M129" s="30"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="F130" s="30" t="s">
+      <c r="F130" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="L130" s="30"/>
-      <c r="M130" s="30"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
     </row>
     <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F131" s="30" t="s">
+      <c r="F131" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="L131" s="30"/>
-      <c r="M131" s="30"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
     </row>
     <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="F132" s="30" t="s">
+      <c r="F132" s="20" t="s">
         <v>783</v>
       </c>
-      <c r="L132" s="30"/>
-      <c r="M132" s="30"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
     </row>
     <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F133" s="30" t="s">
+      <c r="F133" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="L133" s="30"/>
-      <c r="M133" s="30"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="30" t="s">
+      <c r="E134" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F134" s="30" t="s">
+      <c r="F134" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="L134" s="30"/>
-      <c r="M134" s="30"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
     </row>
     <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="F135" s="30" t="s">
+      <c r="F135" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="L135" s="30"/>
-      <c r="M135" s="30"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
     </row>
     <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="F136" s="30" t="s">
+      <c r="F136" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="L136" s="30"/>
-      <c r="M136" s="30"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
     </row>
     <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E137" s="30" t="s">
+      <c r="E137" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="F137" s="30" t="s">
+      <c r="F137" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
     </row>
     <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F138" s="30" t="s">
+      <c r="F138" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="E139" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F139" s="30" t="s">
+      <c r="F139" s="20" t="s">
         <v>769</v>
       </c>
     </row>
@@ -12860,10 +12866,10 @@
       <c r="A140" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="F140" s="30" t="s">
+      <c r="F140" s="20" t="s">
         <v>724</v>
       </c>
     </row>
@@ -12871,10 +12877,10 @@
       <c r="A141" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E141" s="30" t="s">
+      <c r="E141" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F141" s="30" t="s">
+      <c r="F141" s="20" t="s">
         <v>737</v>
       </c>
     </row>
@@ -12882,10 +12888,10 @@
       <c r="A142" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E142" s="30" t="s">
+      <c r="E142" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F142" s="30" t="s">
+      <c r="F142" s="20" t="s">
         <v>823</v>
       </c>
     </row>
@@ -12893,10 +12899,10 @@
       <c r="A143" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E143" s="30" t="s">
+      <c r="E143" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="F143" s="30" t="s">
+      <c r="F143" s="20" t="s">
         <v>859</v>
       </c>
     </row>
@@ -12904,10 +12910,10 @@
       <c r="A144" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E144" s="30" t="s">
+      <c r="E144" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="F144" s="30" t="s">
+      <c r="F144" s="20" t="s">
         <v>755</v>
       </c>
     </row>
@@ -12915,10 +12921,10 @@
       <c r="A145" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E145" s="30" t="s">
+      <c r="E145" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F145" s="30" t="s">
+      <c r="F145" s="20" t="s">
         <v>834</v>
       </c>
     </row>
@@ -12926,10 +12932,10 @@
       <c r="A146" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F146" s="30" t="s">
+      <c r="F146" s="20" t="s">
         <v>792</v>
       </c>
     </row>
@@ -12937,10 +12943,10 @@
       <c r="A147" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F147" s="30" t="s">
+      <c r="F147" s="20" t="s">
         <v>837</v>
       </c>
     </row>
@@ -12948,10 +12954,10 @@
       <c r="A148" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F148" s="30" t="s">
+      <c r="F148" s="20" t="s">
         <v>862</v>
       </c>
     </row>
@@ -12959,10 +12965,10 @@
       <c r="A149" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E149" s="30" t="s">
+      <c r="E149" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F149" s="30" t="s">
+      <c r="F149" s="20" t="s">
         <v>802</v>
       </c>
     </row>
@@ -12970,10 +12976,10 @@
       <c r="A150" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="20" t="s">
         <v>798</v>
       </c>
     </row>
@@ -12981,10 +12987,10 @@
       <c r="A151" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E151" s="30" t="s">
+      <c r="E151" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F151" s="30" t="s">
+      <c r="F151" s="20" t="s">
         <v>843</v>
       </c>
     </row>
@@ -12992,10 +12998,10 @@
       <c r="A152" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E152" s="30" t="s">
+      <c r="E152" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F152" s="30" t="s">
+      <c r="F152" s="20" t="s">
         <v>787</v>
       </c>
     </row>
@@ -13003,10 +13009,10 @@
       <c r="A153" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E153" s="30" t="s">
+      <c r="E153" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F153" s="30" t="s">
+      <c r="F153" s="20" t="s">
         <v>856</v>
       </c>
     </row>
@@ -13014,10 +13020,10 @@
       <c r="A154" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E154" s="30" t="s">
+      <c r="E154" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F154" s="30" t="s">
+      <c r="F154" s="20" t="s">
         <v>756</v>
       </c>
     </row>
@@ -13025,10 +13031,10 @@
       <c r="A155" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E155" s="30" t="s">
+      <c r="E155" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F155" s="30" t="s">
+      <c r="F155" s="20" t="s">
         <v>744</v>
       </c>
     </row>
@@ -13036,10 +13042,10 @@
       <c r="A156" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E156" s="30" t="s">
+      <c r="E156" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F156" s="30" t="s">
+      <c r="F156" s="20" t="s">
         <v>821</v>
       </c>
     </row>
@@ -13047,10 +13053,10 @@
       <c r="A157" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E157" s="30" t="s">
+      <c r="E157" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="F157" s="30" t="s">
+      <c r="F157" s="20" t="s">
         <v>753</v>
       </c>
     </row>
@@ -13058,10 +13064,10 @@
       <c r="A158" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E158" s="30" t="s">
+      <c r="E158" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F158" s="30" t="s">
+      <c r="F158" s="20" t="s">
         <v>750</v>
       </c>
     </row>
@@ -13069,10 +13075,10 @@
       <c r="A159" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E159" s="30" t="s">
+      <c r="E159" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="F159" s="30" t="s">
+      <c r="F159" s="20" t="s">
         <v>910</v>
       </c>
     </row>
@@ -13080,10 +13086,10 @@
       <c r="A160" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E160" s="30" t="s">
+      <c r="E160" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="F160" s="30" t="s">
+      <c r="F160" s="20" t="s">
         <v>913</v>
       </c>
     </row>
@@ -13091,10 +13097,10 @@
       <c r="A161" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E161" s="30" t="s">
+      <c r="E161" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="F161" s="30" t="s">
+      <c r="F161" s="20" t="s">
         <v>857</v>
       </c>
     </row>
@@ -13102,10 +13108,10 @@
       <c r="A162" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E162" s="30" t="s">
+      <c r="E162" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F162" s="30" t="s">
+      <c r="F162" s="20" t="s">
         <v>776</v>
       </c>
     </row>
@@ -13113,10 +13119,10 @@
       <c r="A163" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E163" s="30" t="s">
+      <c r="E163" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="F163" s="30" t="s">
+      <c r="F163" s="20" t="s">
         <v>797</v>
       </c>
     </row>
@@ -13124,10 +13130,10 @@
       <c r="A164" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="F164" s="30" t="s">
+      <c r="F164" s="20" t="s">
         <v>812</v>
       </c>
     </row>
@@ -13135,10 +13141,10 @@
       <c r="A165" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E165" s="30" t="s">
+      <c r="E165" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F165" s="30" t="s">
+      <c r="F165" s="20" t="s">
         <v>819</v>
       </c>
     </row>
@@ -13146,10 +13152,10 @@
       <c r="A166" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E166" s="30" t="s">
+      <c r="E166" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="F166" s="30" t="s">
+      <c r="F166" s="20" t="s">
         <v>749</v>
       </c>
     </row>
@@ -13157,10 +13163,10 @@
       <c r="A167" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E167" s="30" t="s">
+      <c r="E167" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F167" s="30" t="s">
+      <c r="F167" s="20" t="s">
         <v>786</v>
       </c>
     </row>
@@ -13168,10 +13174,10 @@
       <c r="A168" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F168" s="30" t="s">
+      <c r="F168" s="20" t="s">
         <v>845</v>
       </c>
     </row>
@@ -13179,10 +13185,10 @@
       <c r="A169" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F169" s="30" t="s">
+      <c r="F169" s="20" t="s">
         <v>866</v>
       </c>
     </row>
@@ -13190,10 +13196,10 @@
       <c r="A170" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E170" s="30" t="s">
+      <c r="E170" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="F170" s="30" t="s">
+      <c r="F170" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -13201,10 +13207,10 @@
       <c r="A171" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="F171" s="30" t="s">
+      <c r="F171" s="20" t="s">
         <v>804</v>
       </c>
     </row>
@@ -13212,10 +13218,10 @@
       <c r="A172" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E172" s="30" t="s">
+      <c r="E172" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="F172" s="30" t="s">
+      <c r="F172" s="20" t="s">
         <v>898</v>
       </c>
     </row>
@@ -13223,10 +13229,10 @@
       <c r="A173" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F173" s="30" t="s">
+      <c r="F173" s="20" t="s">
         <v>899</v>
       </c>
     </row>
@@ -13234,10 +13240,10 @@
       <c r="A174" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="F174" s="30" t="s">
+      <c r="F174" s="20" t="s">
         <v>900</v>
       </c>
     </row>
@@ -13245,10 +13251,10 @@
       <c r="A175" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E175" s="30" t="s">
+      <c r="E175" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="F175" s="30" t="s">
+      <c r="F175" s="20" t="s">
         <v>901</v>
       </c>
     </row>
@@ -13256,10 +13262,10 @@
       <c r="A176" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E176" s="30" t="s">
+      <c r="E176" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="F176" s="30" t="s">
+      <c r="F176" s="20" t="s">
         <v>902</v>
       </c>
     </row>
@@ -13267,10 +13273,10 @@
       <c r="A177" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E177" s="30" t="s">
+      <c r="E177" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="F177" s="30" t="s">
+      <c r="F177" s="20" t="s">
         <v>903</v>
       </c>
     </row>
@@ -13278,10 +13284,10 @@
       <c r="A178" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E178" s="30" t="s">
+      <c r="E178" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="F178" s="30" t="s">
+      <c r="F178" s="20" t="s">
         <v>904</v>
       </c>
     </row>
@@ -13289,10 +13295,10 @@
       <c r="A179" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E179" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="F179" s="30" t="s">
+      <c r="F179" s="20" t="s">
         <v>905</v>
       </c>
     </row>
@@ -13300,10 +13306,10 @@
       <c r="A180" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E180" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="F180" s="30" t="s">
+      <c r="F180" s="20" t="s">
         <v>810</v>
       </c>
     </row>
@@ -13311,10 +13317,10 @@
       <c r="A181" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E181" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F181" s="30" t="s">
+      <c r="F181" s="20" t="s">
         <v>844</v>
       </c>
     </row>
@@ -13322,10 +13328,10 @@
       <c r="A182" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E182" s="30" t="s">
+      <c r="E182" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F182" s="30" t="s">
+      <c r="F182" s="20" t="s">
         <v>771</v>
       </c>
     </row>
@@ -13333,10 +13339,10 @@
       <c r="A183" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E183" s="30" t="s">
+      <c r="E183" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F183" s="30" t="s">
+      <c r="F183" s="20" t="s">
         <v>833</v>
       </c>
     </row>
@@ -13344,10 +13350,10 @@
       <c r="A184" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E184" s="30" t="s">
+      <c r="E184" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F184" s="30" t="s">
+      <c r="F184" s="20" t="s">
         <v>831</v>
       </c>
     </row>
@@ -13355,10 +13361,10 @@
       <c r="A185" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E185" s="30" t="s">
+      <c r="E185" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F185" s="30" t="s">
+      <c r="F185" s="20" t="s">
         <v>872</v>
       </c>
     </row>
@@ -13366,10 +13372,10 @@
       <c r="A186" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E186" s="30" t="s">
+      <c r="E186" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F186" s="30" t="s">
+      <c r="F186" s="20" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13377,10 +13383,10 @@
       <c r="A187" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E187" s="30" t="s">
+      <c r="E187" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F187" s="30" t="s">
+      <c r="F187" s="20" t="s">
         <v>784</v>
       </c>
     </row>
@@ -13403,1402 +13409,1402 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="19" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="20" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="20" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="20" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="20" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="20" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="20" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="20" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="20" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="20" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="20" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="20" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="20" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="20" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="20" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="20" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="20" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="20" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="20" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="20" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="20" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="20" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="20" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="20" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="20" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="20" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="20" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="20" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="20" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="20" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="20" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="20" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="20" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="20" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="20" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="20" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="20" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="20" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="20" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="20" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="20" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="20" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="20" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="20" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="20" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="20" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="20" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="20" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="20" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="20" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="20" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="20" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="20" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="20" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="20" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="20" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="20" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="20" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="20" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="20" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="20" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="20" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="20" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="20" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="20" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="20" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="20" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="20" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="20" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="20" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="20" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="20" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="20" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="20" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="20" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="20" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="20" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="20" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="20" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="20" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="20" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="20" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="20" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="20" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="20" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="20" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="20" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="20" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="20" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="20" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="20" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="20" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="20" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="20" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="20" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="20" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="20" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="20" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="20" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="20" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="20" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="20" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="20" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="20" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="20" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="20" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="20" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="20" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="20" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="20" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="20" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="20" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="20" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="20" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="20" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="20" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="20" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="20" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="20" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="20" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="20" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="20" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="20" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="20" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="20" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="20" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="20" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="20" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="20" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="20" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="20" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="20" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="20" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A147" s="30" t="s">
+      <c r="A147" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="20" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="20" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="20" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="20" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="20" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="20" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="20" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="20" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="20" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="20" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="20" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="20" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="20" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="20" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="20" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="20" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="20" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="20" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="20" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="20" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="20" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="20" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="20" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="20" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="20" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A173" s="30" t="s">
+      <c r="A173" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="20" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A174" s="30" t="s">
+      <c r="A174" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="20" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A175" s="30" t="s">
+      <c r="A175" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="20" t="s">
         <v>784</v>
       </c>
     </row>
@@ -14811,11 +14817,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="552338d9-26f4-4322-9397-df3c4236787d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15078,27 +15085,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="552338d9-26f4-4322-9397-df3c4236787d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C12BC222-9B35-4DB4-8D82-8B100A40BDC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A5B5DF-A75E-425A-8D8E-09A02BE6BC3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="552338d9-26f4-4322-9397-df3c4236787d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e4749cd2-4a46-4158-bd20-aa3a442d3156"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15123,9 +15120,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A5B5DF-A75E-425A-8D8E-09A02BE6BC3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C12BC222-9B35-4DB4-8D82-8B100A40BDC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="552338d9-26f4-4322-9397-df3c4236787d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e4749cd2-4a46-4158-bd20-aa3a442d3156"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>